--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1186935.721736645</v>
+        <v>1205175.670672298</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6963214.845179233</v>
+        <v>7075124.675543565</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>248.9066601527452</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>30.80267200131484</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>100.176219543324</v>
+        <v>145.0187003691316</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.896053338104</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -908,10 +908,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>248.995754948869</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>7.908464835665834</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>83.70687650901942</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>236.805171568455</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>175.7311957786737</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,16 +1345,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>218.3991265822551</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>32.67077719907198</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>50.38971918733571</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.08339867820326</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>41.28837002808839</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>78.64757152045178</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>31.24391673888154</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170487</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225222</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2807,7 +2807,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112171</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -3029,7 +3029,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847585</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3506,7 +3506,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>425.1626604146443</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3907,7 +3907,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>52.49195549286388</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>33.08339867820393</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>22.28534392847732</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.10956023096</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>1142.527885968228</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>713.9462117054968</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>285.3645374427651</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4328,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4358,22 +4358,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>625.9919244821526</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.368726675464</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,13 +4495,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>395.2818083374338</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1595.995329531605</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="V4" t="n">
-        <v>1309.039821402036</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.013416988327</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="X4" t="n">
-        <v>791.6216623217397</v>
+        <v>1304.820447932477</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>860.9099778088698</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>826.8079090326972</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>794.9385282475458</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>765.2041874462451</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233706</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530729</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847746</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847746</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1553.822471258779</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1134.68000783809</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>883.1691442533736</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>851.7801684713901</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>868.2688864592586</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>702.3908936607813</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>532.6328899115186</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1143.991608255753</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1586.250411413398</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639179</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609521</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>1689.195081761563</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>1410.762081014668</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>1123.806572885099</v>
+        <v>1732.095291794621</v>
       </c>
       <c r="W7" t="n">
-        <v>851.7801684713901</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="X7" t="n">
-        <v>851.7801684713901</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>851.7801684713901</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.9883481097481</v>
+        <v>978.7890572316419</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2492.554568069131</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>1828.476810797181</v>
       </c>
       <c r="X8" t="n">
-        <v>1193.574042295003</v>
+        <v>1409.334347376492</v>
       </c>
       <c r="Y8" t="n">
-        <v>785.2879185946559</v>
+        <v>1001.048223676146</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8013258914481</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>458.239614374673</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>292.3616215761957</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1050.039615296327</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1050.039615296327</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1050.039615296327</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1050.039615296327</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>822.6199446104351</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>498.7803825855964</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1573.840348838456</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2730.888184049007</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>3856.619167485454</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>4836.798834055759</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4836.798834055759</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111519</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>147.5209726224051</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>147.5209726224051</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>914.5724765508968</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5724765508968</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6944837524195</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031568</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2662.496880334081</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2416.617433912536</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U13" t="n">
-        <v>2138.184433165641</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.228925036072</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W13" t="n">
-        <v>1579.202520622363</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.810765955776</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1106.391095269884</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146351</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.866131237899</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2561.73411929595</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>3687.465102732397</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4667.644769302703</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4667.644769302703</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.381259633332</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.381259633332</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427938</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169409</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.283998184902</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.02666852346</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.80576642952</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548905</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781543</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742884</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2574.179093706232</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706232</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276538</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068529</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068529</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252366</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125404</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.006328690604</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.389378624431</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.533924035464</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.391460614775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.105336914428</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126633</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493056</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818282</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173764</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173764</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173764</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173764</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173764</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132057</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.0771858389829</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>808.0771858389829</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>642.1991930405056</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>472.4411892912428</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>295.7341352529991</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>130.1428602788267</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137057</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860604</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157196</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453727</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324157</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.707229910449</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.89580455797</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,19 +5759,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176683</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,22 +5996,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6084,7 +6084,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238769</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.849915585633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,25 +6306,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903899</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736148</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751375</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258748</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287631</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134586</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6403,31 +6403,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752029</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005134</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.652494875565</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461856</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795269</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109377</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771611</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.807784200425</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="30">
@@ -6531,10 +6531,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I30" t="n">
         <v>128.3245134312372</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6610,19 +6610,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J31" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
         <v>2090.757574835212</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6917,46 +6917,46 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957659</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789908</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>611.1385207805135</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>441.3805170312508</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>264.673462993007</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7102,43 +7102,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457405</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.19018171051</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580941</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167232</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500645</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814753</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7251,7 +7251,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
         <v>1107.588885023173</v>
@@ -7309,13 +7309,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
         <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831956</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455183</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638606</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.941454464044</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.543623087308</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305242</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834421</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.07841419448</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.07841419448</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410858</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981164</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.02057581456</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773155</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526211</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526211</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.60619939925</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716266</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650093</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.911492061126</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640437</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940091</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.585213521817</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050125</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319662</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143117</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909818</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571941</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282918</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282918</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282918</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282918</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282918</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223594</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015801</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1055.786752369681</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>883.2250408529059</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>717.3470480544286</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>547.5890443051658</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396467</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654744</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558489</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663496</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2557.83170973132</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2279.398708984425</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1992.443200854856</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1720.416796441147</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1475.02504177456</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1247.605371088668</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872687</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146347</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111519</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>498.7803825855964</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1573.840348838456</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2730.888184049007</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>3856.619167485454</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4836.798834055759</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4836.798834055759</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633331</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950348</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884174</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874518</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.77217639691919</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>421.3305013631315</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.0533615061032</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>771.4916499893283</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>605.613657190851</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>435.8556534415882</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>259.1485994033444</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2691.977765289287</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.098318867742</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.665318120848</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.709809991278</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.68340557757</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.291650910982</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.87198022509</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8143,16 +8143,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671613</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,19 +8763,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>51.29797569827258</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>121.5486837887674</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504104</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10601,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10899,10 +10899,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290751</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11312,13 +11312,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>185.1957776566198</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>107.2592358276476</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.7319563997981</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>201.6494670918333</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.9825081357015</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.2592358276477</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214277</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>141.6500182959547</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.388026562655541</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>122.4480280049975</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>184.7831561774878</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>141.6500182959533</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>571800.8096559576</v>
+        <v>588710.5728869913</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>571800.8096559576</v>
+        <v>591755.2129482254</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>596043.416678221</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>596043.416678221</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604454.1689703865</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>621197.1299715989</v>
+        <v>621197.1299715986</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621197.1299715989</v>
+        <v>621197.1299715987</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612786.3776794332</v>
+        <v>621197.1299715987</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>596043.4166782211</v>
+        <v>621197.1299715989</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150666</v>
@@ -26320,22 +26320,22 @@
         <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.627706448</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605089</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064478</v>
       </c>
       <c r="K2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26350,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739883</v>
+        <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501608</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998285</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284872</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996504</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.499790937</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.317828463</v>
       </c>
       <c r="F4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>105397.8699742193</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26439,7 +26439,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="J4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="K4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26454,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>106850.7461312488</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024163</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
@@ -26494,7 +26494,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319841</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4327.181914434819</v>
+        <v>-4327.181914434703</v>
       </c>
       <c r="C6" t="n">
-        <v>137864.1187452751</v>
+        <v>89005.691421111</v>
       </c>
       <c r="D6" t="n">
-        <v>137864.1187452752</v>
+        <v>147258.0705299983</v>
       </c>
       <c r="E6" t="n">
-        <v>-20024.64164864097</v>
+        <v>39900.73771176014</v>
       </c>
       <c r="F6" t="n">
-        <v>214330.3803733965</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="G6" t="n">
-        <v>210659.0063431993</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="H6" t="n">
-        <v>209876.3162922276</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="I6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="J6" t="n">
-        <v>111264.6059272024</v>
+        <v>111241.3815878197</v>
       </c>
       <c r="K6" t="n">
-        <v>222279.0712721925</v>
+        <v>169209.9922940375</v>
       </c>
       <c r="L6" t="n">
-        <v>222279.0712721925</v>
+        <v>212863.5452061876</v>
       </c>
       <c r="M6" t="n">
-        <v>26677.89198912482</v>
+        <v>70055.67599482232</v>
       </c>
       <c r="N6" t="n">
-        <v>222279.0712721926</v>
+        <v>222255.84693281</v>
       </c>
       <c r="O6" t="n">
-        <v>219621.234259541</v>
+        <v>222255.8469328099</v>
       </c>
       <c r="P6" t="n">
-        <v>214330.3803733965</v>
+        <v>222255.84693281</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26814,7 +26814,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="L4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939365</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319233</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939365</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319233</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>174.6820951421391</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>373.4005904620283</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.4724511961017</v>
+        <v>130.6299703702941</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.1405214419547</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>155.2075075144741</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>235.5121871216635</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>200.3790765392544</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>196.9558765199559</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>42.13535907701808</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28029,7 +28029,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>63.4301651713671</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>57.24954415717056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-5.220349312471573e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.402787305217472e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,10 +34708,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34863,16 +34863,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671613</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>51.29797569827258</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,25 +35647,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>121.5486837887674</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512952</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504104</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,10 +36048,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821484</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37470,7 +37470,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645572</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290751</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
